--- a/CashFlow/FMC_cashflow.xlsx
+++ b/CashFlow/FMC_cashflow.xlsx
@@ -78,7 +78,7 @@
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
@@ -744,19 +744,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4454000000.0</v>
+        <v>-59700000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4375000000.0</v>
+        <v>16500000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3194200000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2037900000.0</v>
+        <v>52800000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>865200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-240300000.0</v>
@@ -992,19 +992,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>61800000.0</v>
+        <v>3384000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>79600000.0</v>
+        <v>3337000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>153100000.0</v>
+        <v>2575800000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>247300000.0</v>
+        <v>1831000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>348400000.0</v>
+        <v>1026000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-1600000.0</v>
